--- a/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Noviembre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Noviembre.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>260</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -362,7 +362,7 @@
         </is>
       </c>
       <c r="C11" s="65">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="C12" s="65">
-        <v>518</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="C14" s="65">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="C15" s="65">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
